--- a/key一覧.xlsx
+++ b/key一覧.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MonacoEditor\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96729289-B2EC-40EA-9F7B-8601FCBE632D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A5D169-9D28-4CDA-B3AF-8D03D8662DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1495,12 +1490,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1547,17 +1548,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1567,6 +1568,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1884,7 +1888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2143AC0F-E27A-4784-B499-14952B399C8E}">
   <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2318,10 +2324,10 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>189</v>
       </c>
       <c r="D25" t="str">
@@ -2335,10 +2341,10 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>147</v>
       </c>
       <c r="D26" t="str">
@@ -3372,10 +3378,10 @@
       <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D87" t="str">
@@ -4966,6 +4972,7 @@
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4974,7 +4981,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.15"/>
@@ -5055,5 +5062,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>